--- a/product_list.xlsx
+++ b/product_list.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44798379-5C9D-43DF-AFCE-17D4E5DB199D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74366259-DF65-4868-8CCC-9845E2435938}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="bnralm0001" sheetId="2" r:id="rId2"/>
-    <sheet name="bnralm0002" sheetId="3" r:id="rId3"/>
-    <sheet name="bnralm0003" sheetId="4" r:id="rId4"/>
-    <sheet name="bnralm0004" sheetId="5" r:id="rId5"/>
-    <sheet name="bnralm0005" sheetId="6" r:id="rId6"/>
-    <sheet name="bnralm0006" sheetId="7" r:id="rId7"/>
+    <sheet name="PRODUCTS" sheetId="1" r:id="rId1"/>
+    <sheet name="BNRALM0001" sheetId="2" r:id="rId2"/>
+    <sheet name="BNRALM0002" sheetId="3" r:id="rId3"/>
+    <sheet name="BNRALM0003" sheetId="4" r:id="rId4"/>
+    <sheet name="BNRALM0004" sheetId="5" r:id="rId5"/>
+    <sheet name="BNRALM0005" sheetId="6" r:id="rId6"/>
+    <sheet name="BNRALM0006" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -305,14 +305,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +780,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,10 +790,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -900,7 +900,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -908,7 +908,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -929,7 +929,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,10 +939,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1049,7 +1049,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1057,7 +1057,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,10 +1087,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1197,7 +1197,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1205,7 +1205,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,10 +1235,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1345,7 +1345,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1353,7 +1353,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,10 +1383,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1493,7 +1493,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1501,7 +1501,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1520,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58DEF71-A671-4DBD-ADF0-062C2134F244}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,10 +1531,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1641,7 +1641,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1649,7 +1649,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
